--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1228.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1228.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.927554625505684</v>
+        <v>1.201037526130676</v>
       </c>
       <c r="B1">
-        <v>2.895715522609678</v>
+        <v>2.062352180480957</v>
       </c>
       <c r="C1">
-        <v>2.374525597634257</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.104511171439651</v>
+        <v>2.030741214752197</v>
       </c>
       <c r="E1">
-        <v>1.657405420594761</v>
+        <v>1.206578135490417</v>
       </c>
     </row>
   </sheetData>
